--- a/doc/权限设计(统一jbus_mqtt_cloud).xlsx
+++ b/doc/权限设计(统一jbus_mqtt_cloud).xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="900" yWindow="0" windowWidth="25040" windowHeight="14240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="schedule" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>view</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +111,14 @@
   </si>
   <si>
     <t>v_jbus_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getMaxUpdateTimeOfDatDecode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,13 +210,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -530,6 +539,247 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t> ,  deviceSn , secretKey as password from t_device</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="711200"/>
+          <a:ext cx="9385300" cy="1422400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>select </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> s.* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> d.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>scriptText</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> d.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>resultSchema,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>concat(date_format(`s`.`updateTime`,'%Y-%m-%d %T'),'&amp;',date_format(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>select </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>max(updateTime)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> from d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,'%Y-%m-%d %T')) AS `max_updateTime` </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>from `t_schedule` `s` left join `t_dat_decode` `d` on (`s`.`deviceId` = `d`.`deviceId`)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939800" y="3035300"/>
+          <a:ext cx="8902700" cy="1993900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BEGIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DECLARE retDate DATETIME; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>select  select max(updateTime) from </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>t_dat_decode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> into retDate;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RETURN retDate;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>END</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -864,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
@@ -884,13 +1134,13 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
@@ -900,17 +1150,17 @@
     </row>
     <row r="5" spans="1:11">
       <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -996,4 +1246,36 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/doc/权限设计(统一jbus_mqtt_cloud).xlsx
+++ b/doc/权限设计(统一jbus_mqtt_cloud).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="0" windowWidth="25040" windowHeight="14240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>view</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>getMaxUpdateTimeOfDatDecode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_event_last</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,6 +550,75 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="10922000"/>
+          <a:ext cx="8915400" cy="1511300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>select id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> ,  deviceSn , secretKey as password from t_device</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -608,61 +681,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>select </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> s.* </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> d.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>scriptText</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> d.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>resultSchema,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>concat(date_format(`s`.`updateTime`,'%Y-%m-%d %T'),'&amp;',date_format(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>select </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>max(updateTime)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> from d</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>,'%Y-%m-%d %T')) AS `max_updateTime` </a:t>
+            <a:t>select  s.* , d.scriptText , d.resultSchema,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>concat(date_format(`s`.`updateTime`,'%Y-%m-%d %T'),'&amp;',date_format(select max(updateTime) from d,'%Y-%m-%d %T')) AS `max_updateTime` </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -750,15 +775,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>select  select max(updateTime) from </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>t_dat_decode</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> into retDate;</a:t>
+            <a:t>select  select max(updateTime) from t_dat_decode into retDate;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1112,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K45"/>
+  <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1229,6 +1246,11 @@
     <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1252,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/doc/权限设计(统一jbus_mqtt_cloud).xlsx
+++ b/doc/权限设计(统一jbus_mqtt_cloud).xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="25360" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="schedule" sheetId="2" r:id="rId2"/>
+    <sheet name="event" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>view</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +124,10 @@
   </si>
   <si>
     <t>v_event_last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateEventForLast</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,11 +612,23 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>select id</a:t>
+            <a:t>select a.* from t_event</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> ,  deviceSn , secretKey as password from t_device</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>where (a.time = (select max(b.time) from t_event b where (a.deviceSn = b.deviceSn))) order by a.deviceId desc</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -797,6 +814,339 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>END</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="787400"/>
+          <a:ext cx="6756400" cy="6781800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>begin</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   DECLARE  g_deviceId int;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   DECLARE  g_maxEventId int; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    DECLARE doneTmp INT DEFAULT FALSE;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    -- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>遍历数据结束标志</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DECLARE done INT DEFAULT FALSE;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    -- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>游标</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DECLARE cur_device CURSOR FOR select id from t_device order by id asc;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    -- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>将结束标志绑定到游标</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DECLARE CONTINUE HANDLER FOR NOT FOUND SET done = TRUE;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>         -- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>打开游标</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OPEN  cur_device ;     </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    -- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>遍历</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>read_loop: LOOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>            -- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>取值 取多个字段</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>FETCH  NEXT from cur_device INTO g_deviceId;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>            IF done THEN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>                LEAVE read_loop;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>             END IF;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        -- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>你自己想做的操作</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>set doneTmp = done;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	select id into g_maxEventId from t_event where deviceId=g_deviceId order by id desc limit 1;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	update t_event set islast=0 where id &lt; g_maxEventId and deviceId=g_deviceId;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        set done = doneTmp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    END LOOP;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    CLOSE cur_device ;	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>end</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1131,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1275,7 +1625,7 @@
   <dimension ref="B3:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1288,6 +1638,33 @@
     <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/权限设计(统一jbus_mqtt_cloud).xlsx
+++ b/doc/权限设计(统一jbus_mqtt_cloud).xlsx
@@ -1,184 +1,456 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="25360" windowHeight="14540" tabRatio="500"/>
+    <workbookView windowWidth="30600" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="schedule" sheetId="2" r:id="rId2"/>
     <sheet name="event" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>v_emq_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>is_superuser</t>
+  </si>
+  <si>
+    <t>U-' + t_user.secretId + '-' + t.user.userId</t>
+  </si>
+  <si>
+    <t>t_user.secretKey</t>
+  </si>
+  <si>
+    <t>0:no, 1:yes</t>
+  </si>
+  <si>
+    <t>v_emq_acl</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>ipaddr</t>
+  </si>
+  <si>
+    <t>clientid</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>0:deny, 1:allow</t>
+  </si>
+  <si>
+    <t>1: subscribe, 2: publish, 3: pubsub</t>
   </si>
   <si>
     <t>v_jbus_device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U-' + t_user.secretId + '-' + t.user.userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_user.secretKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>deviceSn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>*安全隐患：应该是 concat('TC/FWCMD/',deviceSn, '/+')</t>
   </si>
   <si>
-    <t>v_emq_acl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>v_event_last</t>
   </si>
   <si>
-    <t>is_superuser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:no, 1:yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:deny, 1:allow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipaddr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clientid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>access</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1: subscribe, 2: publish, 3: pubsub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_emq_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_emq_acl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_jbus_device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>v_device_sort</t>
   </si>
   <si>
     <t>v_schedule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>getMaxUpdateTimeOfDatDecode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_event_last</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>updateEventForLast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -201,52 +473,326 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -260,15 +806,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="2781300"/>
-          <a:ext cx="5842000" cy="660400"/>
+          <a:off x="685800" y="2532380"/>
+          <a:ext cx="4800600" cy="589280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -318,26 +864,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="文本框 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="812800" y="3886200"/>
-          <a:ext cx="8966200" cy="4267200"/>
+          <a:off x="685800" y="3526790"/>
+          <a:ext cx="7543800" cy="8162925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -379,6 +925,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t> as id , 1 as allow, null as ipaddr, u.username as username, null as clientId, 1 as access, concat('TC/DAT/', d.deviceSn) as topic</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
@@ -388,18 +935,21 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>from t_device d</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>left join v_emq_user u</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>on  d.ownerId = u.id</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
@@ -409,15 +959,77 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>union </a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>select concat(d.id, '-sub-cmd')</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> as id , 1 as allow, null as ipaddr, u.username as username, null as clientId, 1 as access, concat('TC/CMD/', d.deviceSn) as topic</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>from t_device d</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>left join v_emq_user u</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>on  d.ownerId = u.id</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>union </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>select concat(d.id, '-sub-sts') as id , 1 as allow, null as ipaddr, u.username as username, null as clientId, 1 as access, concat('TC/STS/', d.deviceSn) as topic</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -427,18 +1039,21 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>from t_device d</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>left join v_emq_user u</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>on  d.ownerId = u.id</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -448,6 +1063,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>union </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -457,6 +1073,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>select concat(d.id, '-pub-cmd') as id , 1 as allow, null as ipaddr, u.username as username, null as clientId, 2 as access, concat('TC/CMD/', d.deviceSn) as topic</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -466,18 +1083,75 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>from t_device d</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>left join v_emq_user u</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>on  d.ownerId = u.id</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>union </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>select concat(d.id, '-pub-fwcmd') as id , 1 as allow, null as ipaddr, u.username as username, null as clientId, 2 as access, concat('TC/FWCMD/', '+') as topic</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>from t_device d</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>left join v_emq_user u</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>on  d.ownerId = u.id</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -490,24 +1164,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="文本框 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="825500" y="8763000"/>
-          <a:ext cx="8915400" cy="1511300"/>
+          <a:off x="685800" y="12781280"/>
+          <a:ext cx="7518400" cy="1381760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -559,24 +1233,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>395605</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="文本框 4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="825500" y="10922000"/>
-          <a:ext cx="8915400" cy="1511300"/>
+          <a:off x="685800" y="14744065"/>
+          <a:ext cx="9311005" cy="2393950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -610,25 +1284,368 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>select a.* from t_event</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>a</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>where (a.time = (select max(b.time) from t_event b where (a.deviceSn = b.deviceSn))) order by a.deviceId desc</a:t>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>select a.*, substr(a.memo,17,1)  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>as </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>onlineCount  from  t_event a </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>where (</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>	(a.islast= 1) and (a.time = </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>		(select max(b.time) from t_event b </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>		where ((b.islast = 1) and (a.deviceSn = b.deviceSn))</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>		)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>	)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>             ) order by a.deviceId desc</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>395605</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文本框 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="17807940"/>
+          <a:ext cx="9311005" cy="4270375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>select (</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>case </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>when (`e`.`event` = 'on'  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>|| e.onlineCount &gt; 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>) then concat('z_',`e`.`time`) </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>when (`e`.`event` = 'off') then concat('x_',`e`.`time`) </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>when (`e`.`event` is not null) then concat('y_',`e`.`time`) </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>else concat('a_',`d`.`updateTime`) end)  AS `sort`,</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>`d`.`id` AS `id`,`d`.`deviceSn` AS `deviceSn`,`d`.`secretKey` AS `secretKey`,`d`.`deviceName` AS `deviceName`,`d`.`longitude` AS `longitude`,`d`.`latitude` AS `latitude`,`d`.`crcMode` AS `crcMode`,`d`.`ownerId` AS `ownerId`,`d`.`memo` AS `memo`,`d`.`status` AS `status`,`d`.`createTime` AS `createTime`,`d`.`updateTime` AS `updateTime` </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>from (`t_device` `d` left join `v_event_last` `e` on(</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>(`d`.`id` = `e`.`deviceId`))</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>order by (</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>case </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>when (`e`.`event` = 'on') then concat('z_',`e`.`time`) </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>when (`e`.`event` = 'off') then concat('x_',`e`.`time`) </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>when (`e`.`event` is not null) then concat('y_',`e`.`time`) </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>else concat('a_',`d`.`updateTime`) </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>end) </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>desc</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -640,7 +1657,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -654,15 +1671,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="711200"/>
-          <a:ext cx="9385300" cy="1422400"/>
+          <a:off x="736600" y="657860"/>
+          <a:ext cx="7848600" cy="1280160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -700,18 +1717,21 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>select  s.* , d.scriptText , d.resultSchema,</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>concat(date_format(`s`.`updateTime`,'%Y-%m-%d %T'),'&amp;',date_format(select max(updateTime) from d,'%Y-%m-%d %T')) AS `max_updateTime` </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>from `t_schedule` `s` left join `t_dat_decode` `d` on (`s`.`deviceId` = `d`.`deviceId`)</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -733,15 +1753,15 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="文本框 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="939800" y="3035300"/>
-          <a:ext cx="8902700" cy="1993900"/>
+          <a:off x="800100" y="2763520"/>
+          <a:ext cx="7429500" cy="1803400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -779,12 +1799,14 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>BEGIN</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>DECLARE retDate DATETIME; </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -794,6 +1816,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>select  select max(updateTime) from t_dat_decode into retDate;</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -803,6 +1826,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>RETURN retDate;</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -825,7 +1849,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -839,15 +1863,15 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="787400"/>
-          <a:ext cx="6756400" cy="6781800"/>
+          <a:off x="698500" y="716280"/>
+          <a:ext cx="5638800" cy="6159500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -885,36 +1909,42 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>begin</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>   DECLARE  g_deviceId int;  </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>   DECLARE  g_maxEventId int; </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>    DECLARE doneTmp INT DEFAULT FALSE;</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>   </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -931,6 +1961,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>遍历数据结束标志</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -941,6 +1972,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>DECLARE done INT DEFAULT FALSE;</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -951,6 +1983,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>游标</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -961,6 +1994,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>DECLARE cur_device CURSOR FOR select id from t_device order by id asc;</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -971,6 +2005,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>将结束标志绑定到游标</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -981,6 +2016,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>DECLARE CONTINUE HANDLER FOR NOT FOUND SET done = TRUE;</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -994,6 +2030,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>打开游标</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -1004,6 +2041,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>OPEN  cur_device ;     </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -1014,6 +2052,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>遍历</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -1024,6 +2063,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>read_loop: LOOP</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -1034,6 +2074,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>取值 取多个字段</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -1044,30 +2085,35 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>FETCH  NEXT from cur_device INTO g_deviceId;</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>            IF done THEN</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>                LEAVE read_loop;</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>             END IF;</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -1078,6 +2124,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>你自己想做的操作</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -1088,6 +2135,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>set doneTmp = done;</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -1097,48 +2145,56 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>	select id into g_maxEventId from t_event where deviceId=g_deviceId order by id desc limit 1;</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>	update t_event set islast=0 where id &lt; g_maxEventId and deviceId=g_deviceId;</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>	</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>        set done = doneTmp;</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>    END LOOP;</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>    CLOSE cur_device ;	</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -1473,134 +2529,144 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A2:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="R67" sqref="R67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6"/>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="3:11">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="1"/>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="C5" s="2"/>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="3:9">
       <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="8" spans="4:8">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="14:14">
+      <c r="N58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1608,73 +2674,60 @@
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="D5:H5"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B3:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="1"/>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/doc/权限设计(统一jbus_mqtt_cloud).xlsx
+++ b/doc/权限设计(统一jbus_mqtt_cloud).xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30600" windowHeight="12300" tabRatio="500"/>
+    <workbookView windowWidth="30600" windowHeight="11640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="schedule" sheetId="2" r:id="rId2"/>
     <sheet name="event" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -918,243 +918,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>select concat(d.id, '-sub-dat')</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> as id , 1 as allow, null as ipaddr, u.username as username, null as clientId, 1 as access, concat('TC/DAT/', d.deviceSn) as topic</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>from t_device d</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>left join v_emq_user u</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>on  d.ownerId = u.id</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>union </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>select concat(d.id, '-sub-cmd')</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> as id , 1 as allow, null as ipaddr, u.username as username, null as clientId, 1 as access, concat('TC/CMD/', d.deviceSn) as topic</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>from t_device d</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>left join v_emq_user u</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>on  d.ownerId = u.id</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>union </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>select concat(d.id, '-sub-sts') as id , 1 as allow, null as ipaddr, u.username as username, null as clientId, 1 as access, concat('TC/STS/', d.deviceSn) as topic</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>from t_device d</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>left join v_emq_user u</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>on  d.ownerId = u.id</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>union </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>select concat(d.id, '-pub-cmd') as id , 1 as allow, null as ipaddr, u.username as username, null as clientId, 2 as access, concat('TC/CMD/', d.deviceSn) as topic</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>from t_device d</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>left join v_emq_user u</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>on  d.ownerId = u.id</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>union </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>select concat(d.id, '-pub-fwcmd') as id , 1 as allow, null as ipaddr, u.username as username, null as clientId, 2 as access, concat('TC/FWCMD/', '+') as topic</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>from t_device d</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>left join v_emq_user u</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>on  d.ownerId = u.id</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
